--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52456.84133030671</v>
+        <v>66183.19946772486</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26322,7 @@
         <v>75255.18387201249</v>
       </c>
       <c r="E2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="F2" t="n">
         <v>80024.38370490453</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685533</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="E6" t="n">
-        <v>-94912.89240226363</v>
+        <v>-94912.89240226368</v>
       </c>
       <c r="F6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="G6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="H6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="I6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="J6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="K6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="L6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="M6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="N6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="O6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
       <c r="P6" t="n">
-        <v>38187.10759773635</v>
+        <v>38187.10759773636</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66183.19946772486</v>
+        <v>-58926.69932975181</v>
       </c>
     </row>
     <row r="7">
@@ -26322,7 +26322,7 @@
         <v>75255.18387201249</v>
       </c>
       <c r="E2" t="n">
-        <v>80024.38370490454</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="F2" t="n">
         <v>80024.38370490453</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="E6" t="n">
-        <v>-94912.89240226368</v>
+        <v>-109722.9092413776</v>
       </c>
       <c r="F6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="G6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="H6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="I6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="J6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="K6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="L6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="M6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="N6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="O6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
       <c r="P6" t="n">
-        <v>38187.10759773636</v>
+        <v>23377.09075862245</v>
       </c>
     </row>
   </sheetData>
